--- a/coordinate_sys/static/process_table_upload_temp/gongju.xlsx
+++ b/coordinate_sys/static/process_table_upload_temp/gongju.xlsx
@@ -2682,6 +2682,10 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
+    <t>工位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>W1MB-020</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2771,10 +2775,6 @@
   </si>
   <si>
     <t>W1RD1-010R</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工位名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3367,6 +3367,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3420,12 +3426,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4479,9 +4479,9 @@
   </sheetPr>
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -4558,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="55" customFormat="1" ht="22.5" customHeight="1">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Q2" s="38"/>
       <c r="R2" s="55" t="e">
@@ -4895,7 +4895,7 @@
         <v>112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -5130,7 +5130,7 @@
         <v>112</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -5177,7 +5177,7 @@
         <v>112</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -5224,7 +5224,7 @@
         <v>112</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -5273,7 +5273,7 @@
         <v>112</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -5320,7 +5320,7 @@
         <v>252</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -5367,7 +5367,7 @@
         <v>252</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -5412,7 +5412,7 @@
         <v>252</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -5459,7 +5459,7 @@
         <v>252</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -5506,7 +5506,7 @@
         <v>252</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -5553,7 +5553,7 @@
         <v>252</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -5600,7 +5600,7 @@
         <v>252</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -5647,7 +5647,7 @@
         <v>260</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -5692,7 +5692,7 @@
         <v>260</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -5739,7 +5739,7 @@
         <v>260</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -5786,7 +5786,7 @@
         <v>260</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -5833,7 +5833,7 @@
         <v>260</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
@@ -5921,7 +5921,7 @@
         <v>260</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>282</v>
@@ -5968,7 +5968,7 @@
         <v>260</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>282</v>
@@ -6015,7 +6015,7 @@
         <v>260</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -6060,7 +6060,7 @@
         <v>260</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -6154,7 +6154,7 @@
         <v>260</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -6201,7 +6201,7 @@
         <v>260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -6248,7 +6248,7 @@
         <v>260</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -6295,7 +6295,7 @@
         <v>260</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -6381,7 +6381,7 @@
         <v>260</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -6428,7 +6428,7 @@
         <v>260</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>280</v>
@@ -6477,7 +6477,7 @@
         <v>260</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>281</v>
@@ -6526,7 +6526,7 @@
         <v>252</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>285</v>
@@ -6576,7 +6576,7 @@
       <c r="N44" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O44" s="89" t="s">
+      <c r="O44" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P44" s="38"/>
@@ -7117,7 +7117,7 @@
       <c r="N55" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O55" s="89" t="s">
+      <c r="O55" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P55" s="38"/>
@@ -7166,7 +7166,7 @@
       <c r="N56" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O56" s="89" t="s">
+      <c r="O56" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P56" s="38"/>
@@ -7215,7 +7215,7 @@
       <c r="N57" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="O57" s="89" t="s">
+      <c r="O57" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P57" s="38"/>
@@ -7999,7 +7999,7 @@
       <c r="N73" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O73" s="89" t="s">
+      <c r="O73" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P73" s="38"/>
@@ -9857,7 +9857,7 @@
       <c r="N111" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O111" s="89" t="s">
+      <c r="O111" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P111" s="1"/>
@@ -9906,7 +9906,7 @@
       <c r="N112" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O112" s="89" t="s">
+      <c r="O112" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P112" s="1"/>
@@ -9955,7 +9955,7 @@
       <c r="N113" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O113" s="89" t="s">
+      <c r="O113" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P113" s="1"/>
@@ -10004,7 +10004,7 @@
       <c r="N114" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O114" s="89" t="s">
+      <c r="O114" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P114" s="16"/>
@@ -10053,7 +10053,7 @@
       <c r="N115" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O115" s="89" t="s">
+      <c r="O115" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P115" s="1"/>
@@ -10102,7 +10102,7 @@
       <c r="N116" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O116" s="89" t="s">
+      <c r="O116" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P116" s="1"/>
@@ -10151,7 +10151,7 @@
       <c r="N117" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O117" s="89" t="s">
+      <c r="O117" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P117" s="1"/>
@@ -10200,7 +10200,7 @@
       <c r="N118" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O118" s="89" t="s">
+      <c r="O118" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P118" s="1"/>
@@ -10249,7 +10249,7 @@
       <c r="N119" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O119" s="89" t="s">
+      <c r="O119" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P119" s="1"/>
@@ -10298,7 +10298,7 @@
       <c r="N120" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O120" s="89" t="s">
+      <c r="O120" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P120" s="1"/>
@@ -10347,7 +10347,7 @@
       <c r="N121" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O121" s="89" t="s">
+      <c r="O121" s="91" t="s">
         <v>148</v>
       </c>
       <c r="P121" s="1"/>
@@ -10738,7 +10738,7 @@
         <v>37</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -10787,7 +10787,7 @@
         <v>37</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -11077,7 +11077,7 @@
         <v>37</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
@@ -11124,7 +11124,7 @@
         <v>37</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -11514,7 +11514,7 @@
         <v>36</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
@@ -11563,7 +11563,7 @@
         <v>36</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
@@ -12901,2143 +12901,2143 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="88" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="88" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="72"/>
+    <col min="1" max="1" width="21.77734375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="90" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="90" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="76" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="76" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="76" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="75" t="s">
         <v>403</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="75" t="s">
         <v>404</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="76" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="78" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="77" t="s">
         <v>410</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="77" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="75" t="s">
         <v>421</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="80" t="s">
         <v>422</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="80" t="s">
         <v>424</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="75" t="s">
         <v>427</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="75" t="s">
         <v>428</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="75" t="s">
         <v>429</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="79" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="79" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="80" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A32" s="78" t="s">
+    <row r="32" spans="1:3" s="82" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A32" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="78" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="B33" s="79" t="s">
+      <c r="B33" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="81" t="s">
         <v>439</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="81" t="s">
         <v>441</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="81" t="s">
         <v>443</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="81" t="s">
         <v>449</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C39" s="83" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="78" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="84" t="s">
         <v>453</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="84" t="s">
         <v>455</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="81" t="s">
         <v>457</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="81" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="81" t="s">
         <v>461</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="84" t="s">
         <v>464</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="84" t="s">
         <v>468</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="81" t="s">
         <v>467</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="84" t="s">
         <v>469</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="81" t="s">
         <v>470</v>
       </c>
-      <c r="C50" s="81" t="s">
+      <c r="C50" s="83" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="84" t="s">
         <v>471</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="81" t="s">
         <v>472</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="78" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="81" t="s">
         <v>475</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="84" t="s">
         <v>476</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="81" t="s">
         <v>475</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="84" t="s">
         <v>477</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="81" t="s">
         <v>478</v>
       </c>
-      <c r="C54" s="77" t="s">
+      <c r="C54" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="84" t="s">
         <v>479</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="81" t="s">
         <v>480</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="C56" s="77" t="s">
+      <c r="C56" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="84" t="s">
         <v>483</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="81" t="s">
         <v>484</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="84" t="s">
         <v>485</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="85" t="s">
         <v>486</v>
       </c>
-      <c r="C58" s="77" t="s">
+      <c r="C58" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="84" t="s">
         <v>487</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="81" t="s">
         <v>475</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="81" t="s">
         <v>475</v>
       </c>
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="79" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="81" t="s">
         <v>490</v>
       </c>
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="83" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="81" t="s">
         <v>492</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="81" t="s">
         <v>494</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="81" t="s">
         <v>495</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A64" s="79" t="s">
+      <c r="A64" s="81" t="s">
         <v>496</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="C64" s="74" t="s">
+      <c r="C64" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="79" t="s">
+      <c r="A65" s="81" t="s">
         <v>498</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="81" t="s">
         <v>499</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="79" t="s">
+      <c r="A66" s="81" t="s">
         <v>500</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21.6">
-      <c r="A67" s="79" t="s">
+      <c r="A67" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A69" s="79" t="s">
+      <c r="A69" s="81" t="s">
         <v>506</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="79" t="s">
+      <c r="A70" s="81" t="s">
         <v>508</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="76" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="81" t="s">
         <v>513</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="81" t="s">
         <v>514</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="81" t="s">
         <v>515</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="81" t="s">
         <v>516</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="79" t="s">
+      <c r="A74" s="81" t="s">
         <v>517</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="81" t="s">
         <v>518</v>
       </c>
-      <c r="C74" s="74" t="s">
+      <c r="C74" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="79" t="s">
+      <c r="A75" s="81" t="s">
         <v>519</v>
       </c>
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21.6">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="C76" s="74" t="s">
+      <c r="C76" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="81" t="s">
         <v>521</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="79" t="s">
+      <c r="A78" s="81" t="s">
         <v>522</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="C78" s="74" t="s">
+      <c r="C78" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="81" t="s">
         <v>523</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="C79" s="74" t="s">
+      <c r="C79" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A80" s="73" t="s">
+      <c r="A80" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="81" t="s">
         <v>525</v>
       </c>
-      <c r="C80" s="74" t="s">
+      <c r="C80" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="79" t="s">
+      <c r="A81" s="81" t="s">
         <v>527</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="81" t="s">
         <v>528</v>
       </c>
-      <c r="C81" s="74" t="s">
+      <c r="C81" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="79" t="s">
+      <c r="A82" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="81" t="s">
         <v>530</v>
       </c>
-      <c r="C82" s="74" t="s">
+      <c r="C82" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="79" t="s">
+      <c r="A83" s="81" t="s">
         <v>531</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="79" t="s">
+      <c r="A84" s="81" t="s">
         <v>533</v>
       </c>
-      <c r="B84" s="79" t="s">
+      <c r="B84" s="81" t="s">
         <v>534</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="79" t="s">
+      <c r="A85" s="81" t="s">
         <v>535</v>
       </c>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="79" t="s">
+      <c r="A86" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="B86" s="79" t="s">
+      <c r="B86" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="74" t="s">
+      <c r="C86" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A87" s="79" t="s">
+      <c r="A87" s="81" t="s">
         <v>537</v>
       </c>
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="81" t="s">
         <v>532</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="76" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="80" t="s">
         <v>538</v>
       </c>
-      <c r="B88" s="79" t="s">
+      <c r="B88" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="C88" s="76" t="s">
+      <c r="C88" s="78" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="80" t="s">
         <v>541</v>
       </c>
-      <c r="B89" s="79" t="s">
+      <c r="B89" s="81" t="s">
         <v>542</v>
       </c>
-      <c r="C89" s="77" t="s">
+      <c r="C89" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="80" t="s">
         <v>543</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="81" t="s">
         <v>544</v>
       </c>
-      <c r="C90" s="77" t="s">
+      <c r="C90" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="80" t="s">
         <v>545</v>
       </c>
-      <c r="B91" s="79" t="s">
+      <c r="B91" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="C91" s="77" t="s">
+      <c r="C91" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="78" t="s">
+      <c r="A92" s="80" t="s">
         <v>547</v>
       </c>
-      <c r="B92" s="79" t="s">
+      <c r="B92" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="C92" s="77" t="s">
+      <c r="C92" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="80" t="s">
         <v>548</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="81" t="s">
         <v>549</v>
       </c>
-      <c r="C93" s="77" t="s">
+      <c r="C93" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="78" t="s">
+      <c r="A94" s="80" t="s">
         <v>550</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="C94" s="77" t="s">
+      <c r="C94" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="78" t="s">
+      <c r="A95" s="80" t="s">
         <v>552</v>
       </c>
-      <c r="B95" s="79" t="s">
+      <c r="B95" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="C95" s="77" t="s">
+      <c r="C95" s="79" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="78" t="s">
+      <c r="A96" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B96" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="C96" s="81" t="s">
+      <c r="C96" s="83" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A97" s="82" t="s">
+      <c r="A97" s="84" t="s">
         <v>555</v>
       </c>
-      <c r="B97" s="79" t="s">
+      <c r="B97" s="81" t="s">
         <v>556</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21.6">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="84" t="s">
         <v>558</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="C98" s="74" t="s">
+      <c r="C98" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="84" t="s">
         <v>560</v>
       </c>
-      <c r="B99" s="84" t="s">
+      <c r="B99" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="B100" s="84" t="s">
+      <c r="B100" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C100" s="74" t="s">
+      <c r="C100" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="B101" s="84" t="s">
+      <c r="B101" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C101" s="74" t="s">
+      <c r="C101" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A102" s="82" t="s">
+      <c r="A102" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="B102" s="84" t="s">
+      <c r="B102" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C102" s="74" t="s">
+      <c r="C102" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="84" t="s">
         <v>564</v>
       </c>
-      <c r="B103" s="84" t="s">
+      <c r="B103" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C103" s="74" t="s">
+      <c r="C103" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="84" t="s">
         <v>565</v>
       </c>
-      <c r="B104" s="84" t="s">
+      <c r="B104" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C104" s="74" t="s">
+      <c r="C104" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="B105" s="84" t="s">
+      <c r="B105" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="82" t="s">
+      <c r="A106" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="B106" s="81" t="s">
         <v>568</v>
       </c>
-      <c r="C106" s="74" t="s">
+      <c r="C106" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="82" t="s">
+      <c r="A107" s="84" t="s">
         <v>569</v>
       </c>
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="81" t="s">
         <v>570</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A108" s="82" t="s">
+      <c r="A108" s="84" t="s">
         <v>571</v>
       </c>
-      <c r="B108" s="84" t="s">
+      <c r="B108" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C108" s="74" t="s">
+      <c r="C108" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="82" t="s">
+      <c r="A109" s="84" t="s">
         <v>572</v>
       </c>
-      <c r="B109" s="79" t="s">
+      <c r="B109" s="81" t="s">
         <v>573</v>
       </c>
-      <c r="C109" s="74" t="s">
+      <c r="C109" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A110" s="82" t="s">
+      <c r="A110" s="84" t="s">
         <v>574</v>
       </c>
-      <c r="B110" s="84" t="s">
+      <c r="B110" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C110" s="74" t="s">
+      <c r="C110" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="82" t="s">
+      <c r="A111" s="84" t="s">
         <v>575</v>
       </c>
-      <c r="B111" s="79" t="s">
+      <c r="B111" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="84" t="s">
         <v>577</v>
       </c>
-      <c r="B112" s="84" t="s">
+      <c r="B112" s="86" t="s">
         <v>539</v>
       </c>
-      <c r="C112" s="74" t="s">
+      <c r="C112" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="82" t="s">
+      <c r="A113" s="84" t="s">
         <v>578</v>
       </c>
-      <c r="B113" s="79" t="s">
+      <c r="B113" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="84" t="s">
         <v>579</v>
       </c>
-      <c r="B114" s="79" t="s">
+      <c r="B114" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="C114" s="74" t="s">
+      <c r="C114" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="82" t="s">
+      <c r="A115" s="84" t="s">
         <v>580</v>
       </c>
-      <c r="B115" s="79" t="s">
+      <c r="B115" s="81" t="s">
         <v>581</v>
       </c>
-      <c r="C115" s="74" t="s">
+      <c r="C115" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="82" t="s">
+      <c r="A116" s="84" t="s">
         <v>582</v>
       </c>
-      <c r="B116" s="79" t="s">
+      <c r="B116" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="C116" s="74" t="s">
+      <c r="C116" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="82" t="s">
+      <c r="A117" s="84" t="s">
         <v>584</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B117" s="81" t="s">
         <v>585</v>
       </c>
-      <c r="C117" s="74" t="s">
+      <c r="C117" s="76" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A118" s="82" t="s">
+      <c r="A118" s="84" t="s">
         <v>586</v>
       </c>
-      <c r="B118" s="79" t="s">
+      <c r="B118" s="81" t="s">
         <v>587</v>
       </c>
-      <c r="C118" s="77" t="s">
+      <c r="C118" s="79" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="82" t="s">
+      <c r="A119" s="84" t="s">
         <v>589</v>
       </c>
-      <c r="B119" s="79" t="s">
+      <c r="B119" s="81" t="s">
         <v>590</v>
       </c>
-      <c r="C119" s="77" t="s">
+      <c r="C119" s="79" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="82" t="s">
+      <c r="A120" s="84" t="s">
         <v>591</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="81" t="s">
         <v>592</v>
       </c>
-      <c r="C120" s="77" t="s">
+      <c r="C120" s="79" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="82" t="s">
+      <c r="A121" s="84" t="s">
         <v>593</v>
       </c>
-      <c r="B121" s="79" t="s">
+      <c r="B121" s="81" t="s">
         <v>594</v>
       </c>
-      <c r="C121" s="77" t="s">
+      <c r="C121" s="79" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="82" t="s">
+      <c r="A122" s="84" t="s">
         <v>595</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="81" t="s">
         <v>596</v>
       </c>
-      <c r="C122" s="77" t="s">
+      <c r="C122" s="79" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="84" t="s">
         <v>597</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="81" t="s">
         <v>556</v>
       </c>
-      <c r="C123" s="77" t="s">
+      <c r="C123" s="79" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A124" s="82" t="s">
+      <c r="A124" s="84" t="s">
         <v>598</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B124" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="C124" s="74" t="s">
+      <c r="C124" s="76" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="82" t="s">
+      <c r="A125" s="84" t="s">
         <v>601</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B125" s="81" t="s">
         <v>602</v>
       </c>
-      <c r="C125" s="85" t="s">
+      <c r="C125" s="87" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="82" t="s">
+      <c r="A126" s="84" t="s">
         <v>603</v>
       </c>
-      <c r="B126" s="79" t="s">
+      <c r="B126" s="81" t="s">
         <v>604</v>
       </c>
-      <c r="C126" s="85" t="s">
+      <c r="C126" s="87" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A127" s="82" t="s">
+      <c r="A127" s="84" t="s">
         <v>605</v>
       </c>
-      <c r="B127" s="79" t="s">
+      <c r="B127" s="81" t="s">
         <v>606</v>
       </c>
-      <c r="C127" s="74" t="s">
+      <c r="C127" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="82" t="s">
+      <c r="A128" s="84" t="s">
         <v>608</v>
       </c>
-      <c r="B128" s="79" t="s">
+      <c r="B128" s="81" t="s">
         <v>609</v>
       </c>
-      <c r="C128" s="74" t="s">
+      <c r="C128" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="82" t="s">
+      <c r="A129" s="84" t="s">
         <v>610</v>
       </c>
-      <c r="B129" s="79" t="s">
+      <c r="B129" s="81" t="s">
         <v>611</v>
       </c>
-      <c r="C129" s="74" t="s">
+      <c r="C129" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A130" s="82" t="s">
+      <c r="A130" s="84" t="s">
         <v>612</v>
       </c>
-      <c r="B130" s="79" t="s">
+      <c r="B130" s="81" t="s">
         <v>613</v>
       </c>
-      <c r="C130" s="74" t="s">
+      <c r="C130" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="82" t="s">
+      <c r="A131" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="B131" s="79" t="s">
+      <c r="B131" s="81" t="s">
         <v>615</v>
       </c>
-      <c r="C131" s="74" t="s">
+      <c r="C131" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="82" t="s">
+      <c r="A132" s="84" t="s">
         <v>616</v>
       </c>
-      <c r="B132" s="79" t="s">
+      <c r="B132" s="81" t="s">
         <v>617</v>
       </c>
-      <c r="C132" s="74" t="s">
+      <c r="C132" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="82" t="s">
+      <c r="A133" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="B133" s="79" t="s">
+      <c r="B133" s="81" t="s">
         <v>619</v>
       </c>
-      <c r="C133" s="74" t="s">
+      <c r="C133" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="82" t="s">
+      <c r="A134" s="84" t="s">
         <v>620</v>
       </c>
-      <c r="B134" s="79" t="s">
+      <c r="B134" s="81" t="s">
         <v>621</v>
       </c>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="82" t="s">
+      <c r="A135" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="B135" s="79" t="s">
+      <c r="B135" s="81" t="s">
         <v>622</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C135" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="82" t="s">
+      <c r="A136" s="84" t="s">
         <v>623</v>
       </c>
-      <c r="B136" s="79" t="s">
+      <c r="B136" s="81" t="s">
         <v>624</v>
       </c>
-      <c r="C136" s="74" t="s">
+      <c r="C136" s="76" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A137" s="82" t="s">
+      <c r="A137" s="84" t="s">
         <v>625</v>
       </c>
-      <c r="B137" s="79" t="s">
+      <c r="B137" s="81" t="s">
         <v>626</v>
       </c>
-      <c r="C137" s="74" t="s">
+      <c r="C137" s="76" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="82" t="s">
+      <c r="A138" s="84" t="s">
         <v>628</v>
       </c>
-      <c r="B138" s="79" t="s">
+      <c r="B138" s="81" t="s">
         <v>629</v>
       </c>
-      <c r="C138" s="74" t="s">
+      <c r="C138" s="76" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="82" t="s">
+      <c r="A139" s="84" t="s">
         <v>630</v>
       </c>
-      <c r="B139" s="79" t="s">
+      <c r="B139" s="81" t="s">
         <v>631</v>
       </c>
-      <c r="C139" s="74" t="s">
+      <c r="C139" s="76" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="82" t="s">
+      <c r="A140" s="84" t="s">
         <v>632</v>
       </c>
-      <c r="B140" s="79" t="s">
+      <c r="B140" s="81" t="s">
         <v>633</v>
       </c>
-      <c r="C140" s="74" t="s">
+      <c r="C140" s="76" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="82" t="s">
+      <c r="A141" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B141" s="79" t="s">
+      <c r="B141" s="81" t="s">
         <v>634</v>
       </c>
-      <c r="C141" s="74" t="s">
+      <c r="C141" s="76" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A142" s="82" t="s">
+      <c r="A142" s="84" t="s">
         <v>635</v>
       </c>
-      <c r="B142" s="79" t="s">
+      <c r="B142" s="81" t="s">
         <v>636</v>
       </c>
-      <c r="C142" s="74" t="s">
+      <c r="C142" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="82" t="s">
+      <c r="A143" s="84" t="s">
         <v>638</v>
       </c>
-      <c r="B143" s="79" t="s">
+      <c r="B143" s="81" t="s">
         <v>639</v>
       </c>
-      <c r="C143" s="74" t="s">
+      <c r="C143" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="82" t="s">
+      <c r="A144" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="B144" s="79" t="s">
+      <c r="B144" s="81" t="s">
         <v>641</v>
       </c>
-      <c r="C144" s="74" t="s">
+      <c r="C144" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="82" t="s">
+      <c r="A145" s="84" t="s">
         <v>642</v>
       </c>
-      <c r="B145" s="79" t="s">
+      <c r="B145" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="C145" s="74" t="s">
+      <c r="C145" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="82" t="s">
+      <c r="A146" s="84" t="s">
         <v>644</v>
       </c>
-      <c r="B146" s="79" t="s">
+      <c r="B146" s="81" t="s">
         <v>645</v>
       </c>
-      <c r="C146" s="74" t="s">
+      <c r="C146" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="82" t="s">
+      <c r="A147" s="84" t="s">
         <v>646</v>
       </c>
-      <c r="B147" s="79" t="s">
+      <c r="B147" s="81" t="s">
         <v>647</v>
       </c>
-      <c r="C147" s="74" t="s">
+      <c r="C147" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="82" t="s">
+      <c r="A148" s="84" t="s">
         <v>648</v>
       </c>
-      <c r="B148" s="79" t="s">
+      <c r="B148" s="81" t="s">
         <v>647</v>
       </c>
-      <c r="C148" s="74" t="s">
+      <c r="C148" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="82" t="s">
+      <c r="A149" s="84" t="s">
         <v>649</v>
       </c>
-      <c r="B149" s="79" t="s">
+      <c r="B149" s="81" t="s">
         <v>650</v>
       </c>
-      <c r="C149" s="74" t="s">
+      <c r="C149" s="76" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A150" s="82" t="s">
+      <c r="A150" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="B150" s="79" t="s">
+      <c r="B150" s="81" t="s">
         <v>652</v>
       </c>
-      <c r="C150" s="74" t="s">
+      <c r="C150" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="82" t="s">
+      <c r="A151" s="84" t="s">
         <v>654</v>
       </c>
-      <c r="B151" s="79" t="s">
+      <c r="B151" s="81" t="s">
         <v>655</v>
       </c>
-      <c r="C151" s="74" t="s">
+      <c r="C151" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="82" t="s">
+      <c r="A152" s="84" t="s">
         <v>656</v>
       </c>
-      <c r="B152" s="79" t="s">
+      <c r="B152" s="81" t="s">
         <v>657</v>
       </c>
-      <c r="C152" s="74" t="s">
+      <c r="C152" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="82" t="s">
+      <c r="A153" s="84" t="s">
         <v>658</v>
       </c>
-      <c r="B153" s="79" t="s">
+      <c r="B153" s="81" t="s">
         <v>659</v>
       </c>
-      <c r="C153" s="74" t="s">
+      <c r="C153" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="82" t="s">
+      <c r="A154" s="84" t="s">
         <v>660</v>
       </c>
-      <c r="B154" s="79" t="s">
+      <c r="B154" s="81" t="s">
         <v>661</v>
       </c>
-      <c r="C154" s="74" t="s">
+      <c r="C154" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="82" t="s">
+      <c r="A155" s="84" t="s">
         <v>662</v>
       </c>
-      <c r="B155" s="79" t="s">
+      <c r="B155" s="81" t="s">
         <v>663</v>
       </c>
-      <c r="C155" s="74" t="s">
+      <c r="C155" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="84" t="s">
         <v>664</v>
       </c>
-      <c r="B156" s="79" t="s">
+      <c r="B156" s="81" t="s">
         <v>663</v>
       </c>
-      <c r="C156" s="74" t="s">
+      <c r="C156" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="82" t="s">
+      <c r="A157" s="84" t="s">
         <v>665</v>
       </c>
-      <c r="B157" s="79" t="s">
+      <c r="B157" s="81" t="s">
         <v>666</v>
       </c>
-      <c r="C157" s="74" t="s">
+      <c r="C157" s="76" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="84" t="s">
         <v>667</v>
       </c>
-      <c r="B158" s="79" t="s">
+      <c r="B158" s="81" t="s">
         <v>668</v>
       </c>
-      <c r="C158" s="74" t="s">
+      <c r="C158" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="82" t="s">
+      <c r="A159" s="84" t="s">
         <v>670</v>
       </c>
-      <c r="B159" s="79" t="s">
+      <c r="B159" s="81" t="s">
         <v>671</v>
       </c>
-      <c r="C159" s="74" t="s">
+      <c r="C159" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="82" t="s">
+      <c r="A160" s="84" t="s">
         <v>672</v>
       </c>
-      <c r="B160" s="79" t="s">
+      <c r="B160" s="81" t="s">
         <v>673</v>
       </c>
-      <c r="C160" s="74" t="s">
+      <c r="C160" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="82" t="s">
+      <c r="A161" s="84" t="s">
         <v>674</v>
       </c>
-      <c r="B161" s="79" t="s">
+      <c r="B161" s="81" t="s">
         <v>675</v>
       </c>
-      <c r="C161" s="74" t="s">
+      <c r="C161" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="82" t="s">
+      <c r="A162" s="84" t="s">
         <v>676</v>
       </c>
-      <c r="B162" s="79" t="s">
+      <c r="B162" s="81" t="s">
         <v>677</v>
       </c>
-      <c r="C162" s="74" t="s">
+      <c r="C162" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A163" s="82" t="s">
+      <c r="A163" s="84" t="s">
         <v>678</v>
       </c>
-      <c r="B163" s="79" t="s">
+      <c r="B163" s="81" t="s">
         <v>679</v>
       </c>
-      <c r="C163" s="74" t="s">
+      <c r="C163" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="82" t="s">
+      <c r="A164" s="84" t="s">
         <v>680</v>
       </c>
-      <c r="B164" s="79" t="s">
+      <c r="B164" s="81" t="s">
         <v>681</v>
       </c>
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="76" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A165" s="82" t="s">
+      <c r="A165" s="84" t="s">
         <v>682</v>
       </c>
-      <c r="B165" s="79" t="s">
+      <c r="B165" s="81" t="s">
         <v>683</v>
       </c>
-      <c r="C165" s="74" t="s">
+      <c r="C165" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="82" t="s">
+      <c r="A166" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="B166" s="79" t="s">
+      <c r="B166" s="81" t="s">
         <v>686</v>
       </c>
-      <c r="C166" s="74" t="s">
+      <c r="C166" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="82" t="s">
+      <c r="A167" s="84" t="s">
         <v>687</v>
       </c>
-      <c r="B167" s="79" t="s">
+      <c r="B167" s="81" t="s">
         <v>688</v>
       </c>
-      <c r="C167" s="74" t="s">
+      <c r="C167" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="82" t="s">
+      <c r="A168" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="B168" s="79" t="s">
+      <c r="B168" s="81" t="s">
         <v>690</v>
       </c>
-      <c r="C168" s="74" t="s">
+      <c r="C168" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="82" t="s">
+      <c r="A169" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="B169" s="79" t="s">
+      <c r="B169" s="81" t="s">
         <v>692</v>
       </c>
-      <c r="C169" s="74" t="s">
+      <c r="C169" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="82" t="s">
+      <c r="A170" s="84" t="s">
         <v>693</v>
       </c>
-      <c r="B170" s="79" t="s">
+      <c r="B170" s="81" t="s">
         <v>694</v>
       </c>
-      <c r="C170" s="74" t="s">
+      <c r="C170" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A171" s="82" t="s">
+      <c r="A171" s="84" t="s">
         <v>695</v>
       </c>
-      <c r="B171" s="79" t="s">
+      <c r="B171" s="81" t="s">
         <v>696</v>
       </c>
-      <c r="C171" s="74" t="s">
+      <c r="C171" s="76" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A172" s="82" t="s">
+      <c r="A172" s="84" t="s">
         <v>697</v>
       </c>
-      <c r="B172" s="73" t="s">
+      <c r="B172" s="75" t="s">
         <v>698</v>
       </c>
-      <c r="C172" s="76" t="s">
+      <c r="C172" s="78" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="82" t="s">
+      <c r="A173" s="84" t="s">
         <v>700</v>
       </c>
-      <c r="B173" s="73" t="s">
+      <c r="B173" s="75" t="s">
         <v>701</v>
       </c>
-      <c r="C173" s="86" t="s">
+      <c r="C173" s="88" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="82" t="s">
+      <c r="A174" s="84" t="s">
         <v>702</v>
       </c>
-      <c r="B174" s="73" t="s">
+      <c r="B174" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="C174" s="86" t="s">
+      <c r="C174" s="88" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="82" t="s">
+      <c r="A175" s="84" t="s">
         <v>703</v>
       </c>
-      <c r="B175" s="73" t="s">
+      <c r="B175" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="C175" s="87" t="s">
+      <c r="C175" s="89" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A176" s="82" t="s">
+      <c r="A176" s="84" t="s">
         <v>704</v>
       </c>
-      <c r="B176" s="79" t="s">
+      <c r="B176" s="81" t="s">
         <v>705</v>
       </c>
-      <c r="C176" s="74" t="s">
+      <c r="C176" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="82" t="s">
+      <c r="A177" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="B177" s="79" t="s">
+      <c r="B177" s="81" t="s">
         <v>708</v>
       </c>
-      <c r="C177" s="74" t="s">
+      <c r="C177" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="82" t="s">
+      <c r="A178" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="79" t="s">
+      <c r="B178" s="81" t="s">
         <v>709</v>
       </c>
-      <c r="C178" s="74" t="s">
+      <c r="C178" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="82" t="s">
+      <c r="A179" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="B179" s="79" t="s">
+      <c r="B179" s="81" t="s">
         <v>710</v>
       </c>
-      <c r="C179" s="74" t="s">
+      <c r="C179" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="82" t="s">
+      <c r="A180" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="79" t="s">
+      <c r="B180" s="81" t="s">
         <v>711</v>
       </c>
-      <c r="C180" s="74" t="s">
+      <c r="C180" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="82" t="s">
+      <c r="A181" s="84" t="s">
         <v>712</v>
       </c>
-      <c r="B181" s="79" t="s">
+      <c r="B181" s="81" t="s">
         <v>713</v>
       </c>
-      <c r="C181" s="74" t="s">
+      <c r="C181" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="82" t="s">
+      <c r="A182" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="B182" s="79" t="s">
+      <c r="B182" s="81" t="s">
         <v>714</v>
       </c>
-      <c r="C182" s="74" t="s">
+      <c r="C182" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="82" t="s">
+      <c r="A183" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="B183" s="79" t="s">
+      <c r="B183" s="81" t="s">
         <v>715</v>
       </c>
-      <c r="C183" s="74" t="s">
+      <c r="C183" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="82" t="s">
+      <c r="A184" s="84" t="s">
         <v>716</v>
       </c>
-      <c r="B184" s="79" t="s">
+      <c r="B184" s="81" t="s">
         <v>717</v>
       </c>
-      <c r="C184" s="74" t="s">
+      <c r="C184" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="82" t="s">
+      <c r="A185" s="84" t="s">
         <v>718</v>
       </c>
-      <c r="B185" s="79" t="s">
+      <c r="B185" s="81" t="s">
         <v>719</v>
       </c>
-      <c r="C185" s="74" t="s">
+      <c r="C185" s="76" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A186" s="82" t="s">
+      <c r="A186" s="84" t="s">
         <v>720</v>
       </c>
-      <c r="B186" s="79" t="s">
+      <c r="B186" s="81" t="s">
         <v>721</v>
       </c>
-      <c r="C186" s="74" t="s">
+      <c r="C186" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="82" t="s">
+      <c r="A187" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="B187" s="79" t="s">
+      <c r="B187" s="81" t="s">
         <v>723</v>
       </c>
-      <c r="C187" s="74" t="s">
+      <c r="C187" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="82" t="s">
+      <c r="A188" s="84" t="s">
         <v>724</v>
       </c>
-      <c r="B188" s="79" t="s">
+      <c r="B188" s="81" t="s">
         <v>725</v>
       </c>
-      <c r="C188" s="74" t="s">
+      <c r="C188" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="82" t="s">
+      <c r="A189" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="B189" s="79" t="s">
+      <c r="B189" s="81" t="s">
         <v>726</v>
       </c>
-      <c r="C189" s="74" t="s">
+      <c r="C189" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="82" t="s">
+      <c r="A190" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="B190" s="79" t="s">
+      <c r="B190" s="81" t="s">
         <v>727</v>
       </c>
-      <c r="C190" s="74" t="s">
+      <c r="C190" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="82" t="s">
+      <c r="A191" s="84" t="s">
         <v>728</v>
       </c>
-      <c r="B191" s="79" t="s">
+      <c r="B191" s="81" t="s">
         <v>729</v>
       </c>
-      <c r="C191" s="74" t="s">
+      <c r="C191" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="82" t="s">
+      <c r="A192" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="B192" s="79" t="s">
+      <c r="B192" s="81" t="s">
         <v>730</v>
       </c>
-      <c r="C192" s="74" t="s">
+      <c r="C192" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="82" t="s">
+      <c r="A193" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="B193" s="79" t="s">
+      <c r="B193" s="81" t="s">
         <v>731</v>
       </c>
-      <c r="C193" s="74" t="s">
+      <c r="C193" s="76" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="82" t="s">
+      <c r="A194" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B194" s="79" t="s">
+      <c r="B194" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="C194" s="74" t="s">
+      <c r="C194" s="76" t="s">
         <v>722</v>
       </c>
     </row>
@@ -15081,44 +15081,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="25" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -15720,22 +15720,22 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
       <c r="O30" s="66"/>
       <c r="P30" s="66"/>
       <c r="Q30" s="66"/>
@@ -15810,44 +15810,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="25" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -16473,22 +16473,22 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
       <c r="O30" s="36"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="26"/>
